--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141244.3364912618</v>
+        <v>-144001.5062970449</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>354.2203366988609</v>
+        <v>247.7653949990094</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>67.23574871775543</v>
+        <v>58.54057631653473</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>86.11283245545005</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>49.19354258233945</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>170.5708473530358</v>
+        <v>304.270218931142</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>13.58397576725099</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>274.4246847141209</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>124.7060895538002</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>342.2643065535131</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1300,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>160.8607797215522</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.58111237020562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7228684476127</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272898</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>234.506395075541</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>105.9893107373036</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.05806357631567</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892457</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>244.8868067888989</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>253.7702634074549</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>61.17550840396293</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>41.02686156550217</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>270.209843136045</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>80.33989744908958</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>174.1182300831009</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9099333628698</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.85677025083604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>4.019807611472022</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1576.102522773261</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C2" t="n">
-        <v>1218.304202875422</v>
+        <v>1390.509730446351</v>
       </c>
       <c r="D2" t="n">
-        <v>860.0385042686717</v>
+        <v>1390.509730446351</v>
       </c>
       <c r="E2" t="n">
-        <v>860.0385042686717</v>
+        <v>1004.721477848107</v>
       </c>
       <c r="F2" t="n">
-        <v>449.0525994790641</v>
+        <v>593.735573058499</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.568281034341</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.102522773261</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1576.102522773261</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>641.1463251605253</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>641.1463251605253</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>351.9727148150933</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>351.9727148150933</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>351.9727148150933</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9727148150933</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150933</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2168.202948062278</v>
+        <v>1899.21241430279</v>
       </c>
       <c r="C5" t="n">
-        <v>1799.240431121867</v>
+        <v>1530.249897362378</v>
       </c>
       <c r="D5" t="n">
-        <v>1440.974732515116</v>
+        <v>1171.984198755627</v>
       </c>
       <c r="E5" t="n">
-        <v>1055.186479916872</v>
+        <v>786.1959461573831</v>
       </c>
       <c r="F5" t="n">
-        <v>644.2005751272643</v>
+        <v>375.2100413677755</v>
       </c>
       <c r="G5" t="n">
-        <v>226.2367670254512</v>
+        <v>361.2866373063665</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.202948062278</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>2168.202948062278</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.6939024587812</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>365.6939024587812</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>215.5772630464454</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>67.66416946405232</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587812</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587812</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587812</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587812</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.6939024587812</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1034.912596435357</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="C8" t="n">
-        <v>1034.912596435357</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="D8" t="n">
-        <v>1034.912596435357</v>
+        <v>1634.354746806821</v>
       </c>
       <c r="E8" t="n">
-        <v>1034.912596435357</v>
+        <v>1248.566494208577</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>837.5805894189696</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4808,10 +4808,10 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>972.0780625208071</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2151.286341942363</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1798.517686672249</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1425.051928411169</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1034.912596435357</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1955.425461779395</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2504.861470532118</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.2576975263416</v>
+        <v>373.9853062623551</v>
       </c>
       <c r="C10" t="n">
-        <v>473.2576975263416</v>
+        <v>373.9853062623551</v>
       </c>
       <c r="D10" t="n">
-        <v>473.2576975263416</v>
+        <v>373.9853062623551</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3446039439485</v>
+        <v>226.072212679962</v>
       </c>
       <c r="F10" t="n">
-        <v>178.4546564460382</v>
+        <v>226.072212679962</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>226.072212679962</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>891.3920271973332</v>
       </c>
       <c r="W10" t="n">
-        <v>764.4604932427485</v>
+        <v>601.9748571603725</v>
       </c>
       <c r="X10" t="n">
-        <v>536.4709423447312</v>
+        <v>373.9853062623551</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.2576975263416</v>
+        <v>373.9853062623551</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>633.4413279836774</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258104</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602302</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396415</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W13" t="n">
-        <v>1263.871922855465</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.882371957447</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>815.0897928139171</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,19 +5358,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5458,19 +5458,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2272.857469997003</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.857469997003</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5604,10 +5604,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.18473370455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630024</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5966,43 +5966,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6069,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1730.100669612631</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1475.416181406744</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.097958200834</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302817</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159287</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179085</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4311299055728</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5180363231797</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1160.762130157864</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>932.7725792598471</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>711.980000116317</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6698,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6847,10 +6847,10 @@
         <v>483.8760050556308</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>174.9680746127088</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.8386896933887</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E37" t="n">
         <v>489.9894131830887</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1437.269284565176</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.279733667159</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.4871545236284</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>265.0731740618515</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>97.87707477673149</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7643,19 +7643,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7822,34 +7822,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,13 +8456,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>312.2066704284447</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8541,16 +8541,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>230.7984289569018</v>
+        <v>96.12069185784512</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>346.5484213030396</v>
+        <v>355.2435937042603</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>65.3034175540319</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>52.01660326105005</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>75.03697526434104</v>
+        <v>181.0262860016455</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365927</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.77391660562162</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>41.29766760034522</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>32.75273492913607</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>99.26785128072171</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>16.31315520054596</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.9259388694759565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5.713750098836414</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>6.274541026374379</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.7278831012588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028987</v>
+        <v>274720.9666028988</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991062</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="L2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>19427.71799363178</v>
@@ -26421,25 +26421,25 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682748</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
@@ -26448,13 +26448,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682766</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557542.616780529</v>
+        <v>-557763.7480945035</v>
       </c>
       <c r="C6" t="n">
         <v>15109.17017266343</v>
       </c>
       <c r="D6" t="n">
-        <v>-140694.6359211314</v>
+        <v>-140694.6359211316</v>
       </c>
       <c r="E6" t="n">
-        <v>-575172.7828876441</v>
+        <v>-575207.5208130798</v>
       </c>
       <c r="F6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677268</v>
       </c>
       <c r="G6" t="n">
-        <v>195879.9084931622</v>
+        <v>195845.1705677267</v>
       </c>
       <c r="H6" t="n">
-        <v>195879.9084931623</v>
+        <v>195845.1705677266</v>
       </c>
       <c r="I6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677266</v>
       </c>
       <c r="J6" t="n">
-        <v>19456.68930056936</v>
+        <v>19421.95137513368</v>
       </c>
       <c r="K6" t="n">
-        <v>195879.9084931623</v>
+        <v>195845.1705677265</v>
       </c>
       <c r="L6" t="n">
-        <v>195879.9084931623</v>
+        <v>195845.1705677266</v>
       </c>
       <c r="M6" t="n">
-        <v>71671.39778510384</v>
+        <v>71636.65985966832</v>
       </c>
       <c r="N6" t="n">
-        <v>195879.9084931622</v>
+        <v>195845.1705677268</v>
       </c>
       <c r="O6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677266</v>
       </c>
       <c r="P6" t="n">
-        <v>171630.4340217824</v>
+        <v>171630.4340217827</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>11.05255507214667</v>
+        <v>117.5074967719981</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>126.0327064945689</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>176.5161128066977</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>153.3519254113213</v>
+        <v>19.65255383321517</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>131.8370722556803</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>11.8571895278568</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>282.1699561879112</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>70.65259739242367</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>91.27686360227577</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.0035409818892</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K27" t="n">
-        <v>399.1902208908131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>506.5665344352332</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,13 +35176,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>508.5038551678209</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35261,16 +35261,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>431.4618043636338</v>
+        <v>296.7840672645771</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35659,7 +35659,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K27" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>364.4325005132149</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
